--- a/xlsx/通货膨胀率_intext.xlsx
+++ b/xlsx/通货膨胀率_intext.xlsx
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
-  </si>
-  <si>
-    <t>政策_政策_貨幣政策_通货膨胀率</t>
+    <t>经济学</t>
+  </si>
+  <si>
+    <t>政策_政策_货币政策_通货膨胀率</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%9A%E8%B2%A8%E8%86%A8%E8%84%B9</t>
   </si>
   <si>
-    <t>通貨膨脹</t>
+    <t>通货膨胀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BC%E8%B2%B7%E5%8A%9B</t>
   </si>
   <si>
-    <t>購買力</t>
+    <t>购买力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E9%80%9A%E8%B4%A7%E8%86%A8%E8%83%80%E7%8E%87%E5%88%97%E8%A1%A8</t>
